--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N2">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q2">
-        <v>125044.159161262</v>
+        <v>133920.7213891924</v>
       </c>
       <c r="R2">
-        <v>1125397.432451358</v>
+        <v>1205286.492502732</v>
       </c>
       <c r="S2">
-        <v>0.3537494259557667</v>
+        <v>0.3729685731900123</v>
       </c>
       <c r="T2">
-        <v>0.3537494259557667</v>
+        <v>0.3729685731900124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q3">
-        <v>2661.547170811435</v>
+        <v>3014.211604255354</v>
       </c>
       <c r="R3">
-        <v>23953.92453730291</v>
+        <v>27127.90443829818</v>
       </c>
       <c r="S3">
-        <v>0.007529506297167522</v>
+        <v>0.008394565005849964</v>
       </c>
       <c r="T3">
-        <v>0.007529506297167522</v>
+        <v>0.008394565005849968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N4">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q4">
-        <v>18876.31716710064</v>
+        <v>22338.65827514449</v>
       </c>
       <c r="R4">
-        <v>169886.8545039057</v>
+        <v>201047.9244763004</v>
       </c>
       <c r="S4">
-        <v>0.05340102574010899</v>
+        <v>0.0622130572284408</v>
       </c>
       <c r="T4">
-        <v>0.05340102574010898</v>
+        <v>0.06221305722844081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N5">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q5">
-        <v>201.7600953771898</v>
+        <v>194.7212472955637</v>
       </c>
       <c r="R5">
-        <v>1815.840858394708</v>
+        <v>1752.491225660073</v>
       </c>
       <c r="S5">
-        <v>0.0005707785025641762</v>
+        <v>0.0005422977491477795</v>
       </c>
       <c r="T5">
-        <v>0.000570778502564176</v>
+        <v>0.0005422977491477797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N6">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q6">
-        <v>56991.87211648284</v>
+        <v>53896.14750317595</v>
       </c>
       <c r="R6">
-        <v>512926.8490483455</v>
+        <v>485065.3275285835</v>
       </c>
       <c r="S6">
-        <v>0.1612297781886001</v>
+        <v>0.1501005148880583</v>
       </c>
       <c r="T6">
-        <v>0.1612297781886001</v>
+        <v>0.1501005148880583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q7">
         <v>1213.063904850213</v>
@@ -883,10 +883,10 @@
         <v>10917.57514365192</v>
       </c>
       <c r="S7">
-        <v>0.003431752933257861</v>
+        <v>0.00337837721516934</v>
       </c>
       <c r="T7">
-        <v>0.003431752933257861</v>
+        <v>0.00337837721516934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N8">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q8">
-        <v>8603.33390406647</v>
+        <v>8990.151852014977</v>
       </c>
       <c r="R8">
-        <v>77430.00513659824</v>
+        <v>80911.36666813478</v>
       </c>
       <c r="S8">
-        <v>0.02433879719199341</v>
+        <v>0.02503753022105635</v>
       </c>
       <c r="T8">
-        <v>0.0243387971919934</v>
+        <v>0.02503753022105635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N9">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q9">
-        <v>91.95699848016901</v>
+        <v>78.36520709700299</v>
       </c>
       <c r="R9">
-        <v>827.612986321521</v>
+        <v>705.286863873027</v>
       </c>
       <c r="S9">
-        <v>0.0002601459807732678</v>
+        <v>0.0002182467296735139</v>
       </c>
       <c r="T9">
-        <v>0.0002601459807732678</v>
+        <v>0.0002182467296735139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N10">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q10">
-        <v>31802.00504257261</v>
+        <v>41988.93464552943</v>
       </c>
       <c r="R10">
-        <v>286218.0453831534</v>
+        <v>377900.4118097648</v>
       </c>
       <c r="S10">
-        <v>0.08996774502313284</v>
+        <v>0.1169389836170313</v>
       </c>
       <c r="T10">
-        <v>0.08996774502313283</v>
+        <v>0.1169389836170314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q11">
-        <v>676.9011612772067</v>
+        <v>945.0631145501605</v>
       </c>
       <c r="R11">
-        <v>6092.11045149486</v>
+        <v>8505.568030951445</v>
       </c>
       <c r="S11">
-        <v>0.001914950676918824</v>
+        <v>0.00263199628669808</v>
       </c>
       <c r="T11">
-        <v>0.001914950676918823</v>
+        <v>0.002631996286698081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N12">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q12">
-        <v>4800.74189598218</v>
+        <v>7003.968113776554</v>
       </c>
       <c r="R12">
-        <v>43206.67706383962</v>
+        <v>63035.71302398898</v>
       </c>
       <c r="S12">
-        <v>0.01358127961559045</v>
+        <v>0.01950601794080834</v>
       </c>
       <c r="T12">
-        <v>0.01358127961559045</v>
+        <v>0.01950601794080835</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N13">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q13">
-        <v>51.31287709568667</v>
+        <v>61.05207351018066</v>
       </c>
       <c r="R13">
-        <v>461.81589386118</v>
+        <v>549.4686615916258</v>
       </c>
       <c r="S13">
-        <v>0.0001451639239968702</v>
+        <v>0.0001700297348399845</v>
       </c>
       <c r="T13">
-        <v>0.0001451639239968701</v>
+        <v>0.0001700297348399846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N14">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q14">
-        <v>87291.25297736625</v>
+        <v>71736.96814958862</v>
       </c>
       <c r="R14">
-        <v>785621.2767962962</v>
+        <v>645632.7133462975</v>
       </c>
       <c r="S14">
-        <v>0.2469466054138509</v>
+        <v>0.1997871156769967</v>
       </c>
       <c r="T14">
-        <v>0.2469466054138508</v>
+        <v>0.1997871156769968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q15">
-        <v>1857.981923800795</v>
+        <v>1614.614972258034</v>
       </c>
       <c r="R15">
-        <v>16721.83731420716</v>
+        <v>14531.5347503223</v>
       </c>
       <c r="S15">
-        <v>0.005256223428501714</v>
+        <v>0.004496695031265779</v>
       </c>
       <c r="T15">
-        <v>0.005256223428501713</v>
+        <v>0.00449669503126578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N16">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q16">
-        <v>13177.24384862627</v>
+        <v>11966.09158437456</v>
       </c>
       <c r="R16">
-        <v>118595.1946376364</v>
+        <v>107694.824259371</v>
       </c>
       <c r="S16">
-        <v>0.03727837012458228</v>
+        <v>0.03332550824539809</v>
       </c>
       <c r="T16">
-        <v>0.03727837012458227</v>
+        <v>0.0333255082453981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N17">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q17">
-        <v>140.845375301335</v>
+        <v>104.3058293771804</v>
       </c>
       <c r="R17">
-        <v>1267.608377712015</v>
+        <v>938.752464394624</v>
       </c>
       <c r="S17">
-        <v>0.000398451003194134</v>
+        <v>0.0002904912395532195</v>
       </c>
       <c r="T17">
-        <v>0.0003984510031941338</v>
+        <v>0.0002904912395532196</v>
       </c>
     </row>
   </sheetData>
